--- a/# 2020 all data book - state.xlsx
+++ b/# 2020 all data book - state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a23b819fc7901bf5/Documents/School/WSU Data Analytics 115/final project 115/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1250" documentId="8_{8DC72636-545C-493B-9CBA-2D154A68DE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4A9FDBC-433A-4F40-BC19-E146D366BC80}"/>
+  <xr:revisionPtr revIDLastSave="1253" documentId="8_{8DC72636-545C-493B-9CBA-2D154A68DE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69C4BD5C-A235-4F89-BDB7-D0F88E913561}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{43776B65-DEE3-4C27-8A77-47C498B96A17}"/>
   </bookViews>
@@ -34,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,8 +750,8 @@
   <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z59" sqref="Z59"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5549,7 +5571,10 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J58" s="9"/>
-      <c r="K58" s="10"/>
+      <c r="K58" s="10" cm="1">
+        <f t="array" ref="K58">COUNTIF(K2:K54,left)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
